--- a/tables/TableS1_modeling_differences.xlsx
+++ b/tables/TableS1_modeling_differences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/aquacast/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC0C06B-3D2E-0642-AB3C-3DE558840C30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8D640A-E9B1-4F43-864D-0BAE48859239}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25000" yWindow="8220" windowWidth="25600" windowHeight="15540" xr2:uid="{FF5440E8-AEB3-AD48-8A0E-3523D3669D66}"/>
+    <workbookView xWindow="19720" yWindow="9020" windowWidth="25600" windowHeight="15540" xr2:uid="{FF5440E8-AEB3-AD48-8A0E-3523D3669D66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>Multiple scenarios</t>
   </si>
   <si>
-    <t>RCPs 4.5, 6.0, and 8.5</t>
-  </si>
-  <si>
     <t>2021, 2051, and 2100</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>1 historic and 4 future periods</t>
+  </si>
+  <si>
+    <t>RCPs 2.6, 4.5, 6.0, and 8.5</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,10 +620,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -631,16 +631,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -666,7 +666,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -694,13 +694,13 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -755,13 +755,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>18</v>
@@ -805,64 +805,64 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="C19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>23</v>
@@ -873,36 +873,36 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="C21" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
